--- a/state_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/state_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>

--- a/state_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
+++ b/state_results/Lakes/LakeHorowhenuaatBuoy_d1d3f57b5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Lake</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,13 +636,13 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>24</v>
       </c>
       <c r="G2">
-        <v>50.9310566665176</v>
+        <v>50.9275314994282</v>
       </c>
       <c r="H2">
         <v>718</v>
@@ -666,19 +669,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -695,13 +698,13 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>24</v>
       </c>
       <c r="G3">
-        <v>50.9310566665176</v>
+        <v>50.9275314994282</v>
       </c>
       <c r="H3">
         <v>718</v>
@@ -728,19 +731,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -757,13 +760,13 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>18.5281798827905</v>
+        <v>18.5226974032403</v>
       </c>
       <c r="H4">
         <v>230</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.34783</v>
+        <v>0.33019</v>
       </c>
       <c r="M4">
         <v>21</v>
@@ -796,19 +799,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -825,13 +828,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>18.5281798827905</v>
+        <v>18.5226974032403</v>
       </c>
       <c r="H5">
         <v>230</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.34783</v>
+        <v>0.33019</v>
       </c>
       <c r="M5">
         <v>21</v>
@@ -864,19 +867,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -893,13 +896,13 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>18.5281798827905</v>
+        <v>18.5226974032403</v>
       </c>
       <c r="H6">
         <v>230</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.34783</v>
+        <v>0.33019</v>
       </c>
       <c r="M6">
         <v>21</v>
@@ -932,19 +935,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -961,13 +964,13 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>18.5281798827905</v>
+        <v>18.5226974032403</v>
       </c>
       <c r="H7">
         <v>230</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.34783</v>
+        <v>0.33019</v>
       </c>
       <c r="M7">
         <v>21</v>
@@ -1000,19 +1003,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1026,13 +1029,13 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.88245</v>
       </c>
       <c r="G8">
-        <v>1.36515456739757</v>
+        <v>1.36471646479643</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1059,19 +1062,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1088,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>2.66</v>
@@ -1121,19 +1124,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1150,7 +1153,7 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>2.66</v>
@@ -1183,19 +1186,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1212,7 +1215,7 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1245,19 +1248,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1274,13 +1277,13 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>25</v>
       </c>
       <c r="G12">
-        <v>51.3837579872639</v>
+        <v>51.3800332824147</v>
       </c>
       <c r="H12">
         <v>718</v>
@@ -1307,19 +1310,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1336,13 +1339,13 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
       <c r="G13">
-        <v>51.3837579872639</v>
+        <v>51.3800332824147</v>
       </c>
       <c r="H13">
         <v>718</v>
@@ -1369,19 +1372,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1398,13 +1401,13 @@
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14">
-        <v>20.0537624513958</v>
+        <v>20.0441619137513</v>
       </c>
       <c r="H14">
         <v>230</v>
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.44959</v>
+        <v>0.42056</v>
       </c>
       <c r="M14">
         <v>25</v>
@@ -1437,19 +1440,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1466,13 +1469,13 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>20.0537624513958</v>
+        <v>20.0441619137513</v>
       </c>
       <c r="H15">
         <v>230</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.44959</v>
+        <v>0.42056</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -1505,19 +1508,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1534,13 +1537,13 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16">
-        <v>20.0537624513958</v>
+        <v>20.0441619137513</v>
       </c>
       <c r="H16">
         <v>230</v>
@@ -1555,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.44959</v>
+        <v>0.42056</v>
       </c>
       <c r="M16">
         <v>25</v>
@@ -1573,19 +1576,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1602,13 +1605,13 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17">
-        <v>20.0537624513958</v>
+        <v>20.0441619137513</v>
       </c>
       <c r="H17">
         <v>230</v>
@@ -1623,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.44959</v>
+        <v>0.42056</v>
       </c>
       <c r="M17">
         <v>25</v>
@@ -1641,19 +1644,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1667,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>1.43</v>
       </c>
       <c r="G18">
-        <v>1.44288248506122</v>
+        <v>1.44219592973314</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1682,7 +1685,7 @@
         <v>3.347</v>
       </c>
       <c r="L18">
-        <v>0.0393</v>
+        <v>0.0375</v>
       </c>
       <c r="M18">
         <v>2.77256</v>
@@ -1700,19 +1703,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1729,7 +1732,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>2.87</v>
@@ -1762,19 +1765,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1791,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>2.87</v>
@@ -1824,19 +1827,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1853,7 +1856,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>0.106</v>
@@ -1886,19 +1889,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1915,13 +1918,13 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>26.5</v>
       </c>
       <c r="G22">
-        <v>58.0366469839282</v>
+        <v>58.0319467611424</v>
       </c>
       <c r="H22">
         <v>718</v>
@@ -1948,19 +1951,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1977,13 +1980,13 @@
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>26.5</v>
       </c>
       <c r="G23">
-        <v>58.0366469839282</v>
+        <v>58.0319467611424</v>
       </c>
       <c r="H23">
         <v>718</v>
@@ -2010,19 +2013,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2039,13 +2042,13 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24">
-        <v>21.0848698472325</v>
+        <v>21.073381887757</v>
       </c>
       <c r="H24">
         <v>230</v>
@@ -2060,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5652199999999999</v>
+        <v>0.52168</v>
       </c>
       <c r="M24">
         <v>25</v>
@@ -2078,19 +2081,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2107,13 +2110,13 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25">
-        <v>21.0848698472325</v>
+        <v>21.073381887757</v>
       </c>
       <c r="H25">
         <v>230</v>
@@ -2128,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5652199999999999</v>
+        <v>0.52168</v>
       </c>
       <c r="M25">
         <v>25</v>
@@ -2146,19 +2149,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2175,13 +2178,13 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>8</v>
       </c>
       <c r="G26">
-        <v>21.0848698472325</v>
+        <v>21.073381887757</v>
       </c>
       <c r="H26">
         <v>230</v>
@@ -2196,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.5652199999999999</v>
+        <v>0.52168</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -2214,19 +2217,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2243,13 +2246,13 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
       <c r="G27">
-        <v>21.0848698472325</v>
+        <v>21.073381887757</v>
       </c>
       <c r="H27">
         <v>230</v>
@@ -2264,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.5652199999999999</v>
+        <v>0.52168</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -2282,19 +2285,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2308,13 +2311,13 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>1.5</v>
       </c>
       <c r="G28">
-        <v>1.52122240120473</v>
+        <v>1.52053088489256</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2341,19 +2344,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2370,7 +2373,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>2.935</v>
@@ -2403,19 +2406,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2432,7 +2435,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>2.935</v>
@@ -2465,19 +2468,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2494,7 +2497,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>0.1075</v>
@@ -2527,19 +2530,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2556,13 +2559,13 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>25</v>
       </c>
       <c r="G32">
-        <v>58.2037614412158</v>
+        <v>58.1984260531887</v>
       </c>
       <c r="H32">
         <v>848</v>
@@ -2589,19 +2592,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2618,13 +2621,13 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>25</v>
       </c>
       <c r="G33">
-        <v>58.2037614412158</v>
+        <v>58.1984260531887</v>
       </c>
       <c r="H33">
         <v>848</v>
@@ -2651,19 +2654,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2680,13 +2683,13 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
       <c r="G34">
-        <v>52.7860576317112</v>
+        <v>52.7682485581299</v>
       </c>
       <c r="H34">
         <v>860</v>
@@ -2701,7 +2704,7 @@
         <v>2.77777777777778</v>
       </c>
       <c r="L34">
-        <v>0.85419</v>
+        <v>0.76777</v>
       </c>
       <c r="M34">
         <v>35.5</v>
@@ -2719,19 +2722,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2748,13 +2751,13 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35">
-        <v>52.7860576317112</v>
+        <v>52.7682485581299</v>
       </c>
       <c r="H35">
         <v>860</v>
@@ -2769,7 +2772,7 @@
         <v>2.77777777777778</v>
       </c>
       <c r="L35">
-        <v>0.85419</v>
+        <v>0.76777</v>
       </c>
       <c r="M35">
         <v>35.5</v>
@@ -2787,19 +2790,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2816,13 +2819,13 @@
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>52.7860576317112</v>
+        <v>52.7682485581299</v>
       </c>
       <c r="H36">
         <v>860</v>
@@ -2837,7 +2840,7 @@
         <v>2.77777777777778</v>
       </c>
       <c r="L36">
-        <v>0.85419</v>
+        <v>0.76777</v>
       </c>
       <c r="M36">
         <v>35.5</v>
@@ -2855,19 +2858,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2884,13 +2887,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37">
-        <v>52.7860576317112</v>
+        <v>52.7682485581299</v>
       </c>
       <c r="H37">
         <v>860</v>
@@ -2905,7 +2908,7 @@
         <v>2.77777777777778</v>
       </c>
       <c r="L37">
-        <v>0.85419</v>
+        <v>0.76777</v>
       </c>
       <c r="M37">
         <v>35.5</v>
@@ -2923,19 +2926,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2949,13 +2952,13 @@
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>0.792</v>
       </c>
       <c r="G38">
-        <v>1.26130362299949</v>
+        <v>1.2598850431115</v>
       </c>
       <c r="H38">
         <v>3.26</v>
@@ -2964,7 +2967,7 @@
         <v>3.1865</v>
       </c>
       <c r="L38">
-        <v>0.04295</v>
+        <v>0.036</v>
       </c>
       <c r="M38">
         <v>2.573</v>
@@ -2982,19 +2985,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3011,7 +3014,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>2.37</v>
@@ -3044,19 +3047,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3073,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>2.37</v>
@@ -3106,19 +3109,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3135,7 +3138,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>0.128</v>
@@ -3168,19 +3171,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3197,7 +3200,7 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>0.2791</v>
@@ -3230,19 +3233,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3259,7 +3262,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3292,19 +3295,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3321,7 +3324,7 @@
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>21</v>
@@ -3354,19 +3357,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3383,13 +3386,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45">
-        <v>50.4137897994231</v>
+        <v>50.3767825369777</v>
       </c>
       <c r="H45">
         <v>860</v>
@@ -3404,7 +3407,7 @@
         <v>2.85714285714286</v>
       </c>
       <c r="L45">
-        <v>1.16601</v>
+        <v>1.02532</v>
       </c>
       <c r="M45">
         <v>30</v>
@@ -3422,19 +3425,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3451,13 +3454,13 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46">
-        <v>50.4137897994231</v>
+        <v>50.3767825369777</v>
       </c>
       <c r="H46">
         <v>860</v>
@@ -3472,7 +3475,7 @@
         <v>2.85714285714286</v>
       </c>
       <c r="L46">
-        <v>1.16601</v>
+        <v>1.02532</v>
       </c>
       <c r="M46">
         <v>30</v>
@@ -3490,19 +3493,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3519,13 +3522,13 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47">
-        <v>50.4137897994231</v>
+        <v>50.3767825369777</v>
       </c>
       <c r="H47">
         <v>860</v>
@@ -3540,7 +3543,7 @@
         <v>2.85714285714286</v>
       </c>
       <c r="L47">
-        <v>1.16601</v>
+        <v>1.02532</v>
       </c>
       <c r="M47">
         <v>30</v>
@@ -3558,19 +3561,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3587,13 +3590,13 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <v>8</v>
       </c>
       <c r="G48">
-        <v>50.4137897994231</v>
+        <v>50.3767825369777</v>
       </c>
       <c r="H48">
         <v>860</v>
@@ -3608,7 +3611,7 @@
         <v>2.85714285714286</v>
       </c>
       <c r="L48">
-        <v>1.16601</v>
+        <v>1.02532</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -3626,19 +3629,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3655,13 +3658,13 @@
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>0.0499</v>
       </c>
       <c r="G49">
-        <v>0.088019711256482</v>
+        <v>0.08796909665583209</v>
       </c>
       <c r="H49">
         <v>0.487638444959395</v>
@@ -3688,19 +3691,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3717,13 +3720,13 @@
         <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <v>0.0499</v>
       </c>
       <c r="G50">
-        <v>0.088019711256482</v>
+        <v>0.08796909665583209</v>
       </c>
       <c r="H50">
         <v>0.487638444959395</v>
@@ -3750,19 +3753,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3776,13 +3779,13 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51">
         <v>0.445</v>
       </c>
       <c r="G51">
-        <v>0.9852663860008291</v>
+        <v>0.983904806638204</v>
       </c>
       <c r="H51">
         <v>3.15</v>
@@ -3791,7 +3794,7 @@
         <v>3.0325</v>
       </c>
       <c r="L51">
-        <v>0.04295</v>
+        <v>0.036</v>
       </c>
       <c r="M51">
         <v>2.045</v>
@@ -3809,19 +3812,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3835,7 +3838,7 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52">
         <v>8.965</v>
@@ -3868,16 +3871,16 @@
         <v>5502170.80623</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3894,7 +3897,7 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53">
         <v>2.09</v>
@@ -3927,19 +3930,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -3956,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54">
         <v>2.09</v>
@@ -3989,19 +3992,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4018,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>0.109</v>
@@ -4051,19 +4054,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4080,7 +4083,7 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56">
         <v>0.12275</v>
@@ -4113,19 +4116,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4142,13 +4145,13 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57">
         <v>18</v>
       </c>
       <c r="G57">
-        <v>44.0959038264017</v>
+        <v>44.0815298899255</v>
       </c>
       <c r="H57">
         <v>848</v>
@@ -4175,19 +4178,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4204,13 +4207,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58">
         <v>18</v>
       </c>
       <c r="G58">
-        <v>44.0959038264017</v>
+        <v>44.0815298899255</v>
       </c>
       <c r="H58">
         <v>848</v>
@@ -4237,19 +4240,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4266,13 +4269,13 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59">
-        <v>2.12488</v>
+        <v>1.78021</v>
       </c>
       <c r="G59">
-        <v>38.1920368778895</v>
+        <v>38.0645055987973</v>
       </c>
       <c r="H59">
         <v>860</v>
@@ -4287,16 +4290,16 @@
         <v>2.5</v>
       </c>
       <c r="L59">
-        <v>1.84946</v>
+        <v>1.56827</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N59">
-        <v>28.5</v>
+        <v>28.56</v>
       </c>
       <c r="O59">
-        <v>83.2</v>
+        <v>82.92</v>
       </c>
       <c r="P59">
         <v>1790680.36207</v>
@@ -4305,19 +4308,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4334,13 +4337,13 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60">
-        <v>2.12488</v>
+        <v>1.78021</v>
       </c>
       <c r="G60">
-        <v>38.1920368778895</v>
+        <v>38.0645055987973</v>
       </c>
       <c r="H60">
         <v>860</v>
@@ -4355,16 +4358,16 @@
         <v>2.5</v>
       </c>
       <c r="L60">
-        <v>1.84946</v>
+        <v>1.56827</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N60">
-        <v>28.5</v>
+        <v>28.56</v>
       </c>
       <c r="O60">
-        <v>83.2</v>
+        <v>82.92</v>
       </c>
       <c r="P60">
         <v>1790680.36207</v>
@@ -4373,19 +4376,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4402,13 +4405,13 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61">
-        <v>2.12488</v>
+        <v>1.78021</v>
       </c>
       <c r="G61">
-        <v>38.1920368778895</v>
+        <v>38.0645055987973</v>
       </c>
       <c r="H61">
         <v>860</v>
@@ -4423,16 +4426,16 @@
         <v>2.5</v>
       </c>
       <c r="L61">
-        <v>1.84946</v>
+        <v>1.56827</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N61">
-        <v>28.5</v>
+        <v>28.56</v>
       </c>
       <c r="O61">
-        <v>83.2</v>
+        <v>82.92</v>
       </c>
       <c r="P61">
         <v>1790680.36207</v>
@@ -4441,19 +4444,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4470,13 +4473,13 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62">
-        <v>2.12488</v>
+        <v>1.78021</v>
       </c>
       <c r="G62">
-        <v>38.1920368778895</v>
+        <v>38.0645055987973</v>
       </c>
       <c r="H62">
         <v>860</v>
@@ -4491,16 +4494,16 @@
         <v>2.5</v>
       </c>
       <c r="L62">
-        <v>1.84946</v>
+        <v>1.56827</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N62">
-        <v>28.5</v>
+        <v>28.56</v>
       </c>
       <c r="O62">
-        <v>83.2</v>
+        <v>82.92</v>
       </c>
       <c r="P62">
         <v>1790680.36207</v>
@@ -4509,19 +4512,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4538,13 +4541,13 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>0.045</v>
       </c>
       <c r="G63">
-        <v>0.0834820593992754</v>
+        <v>0.083449228306962</v>
       </c>
       <c r="H63">
         <v>0.487638444959395</v>
@@ -4571,19 +4574,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4600,13 +4603,13 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64">
         <v>0.045</v>
       </c>
       <c r="G64">
-        <v>0.0834820593992754</v>
+        <v>0.083449228306962</v>
       </c>
       <c r="H64">
         <v>0.487638444959395</v>
@@ -4633,19 +4636,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4659,13 +4662,13 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>0.468</v>
       </c>
       <c r="G65">
-        <v>0.891920583383035</v>
+        <v>0.890264020066497</v>
       </c>
       <c r="H65">
         <v>3.1</v>
@@ -4674,7 +4677,7 @@
         <v>2.625</v>
       </c>
       <c r="L65">
-        <v>0.03701</v>
+        <v>0.02848</v>
       </c>
       <c r="M65">
         <v>1.965</v>
@@ -4692,19 +4695,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4718,7 +4721,7 @@
         <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66">
         <v>8.85</v>
@@ -4751,16 +4754,16 @@
         <v>5502170.80623</v>
       </c>
       <c r="R66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4777,7 +4780,7 @@
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67">
         <v>1.93</v>
@@ -4810,19 +4813,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -4839,7 +4842,7 @@
         <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68">
         <v>1.93</v>
@@ -4872,19 +4875,19 @@
         <v>5502170.80623</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -4901,7 +4904,7 @@
         <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69">
         <v>0.111</v>
@@ -4934,19 +4937,902 @@
         <v>5502170.80623</v>
       </c>
       <c r="R69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70">
+        <v>0.0456</v>
+      </c>
+      <c r="G70">
+        <v>7.67015111111111</v>
+      </c>
+      <c r="H70">
+        <v>161.6951</v>
+      </c>
+      <c r="I70">
+        <v>47.70897</v>
+      </c>
+      <c r="L70">
+        <v>0.0456</v>
+      </c>
+      <c r="M70">
+        <v>0.9004</v>
+      </c>
+      <c r="N70">
+        <v>0.95269</v>
+      </c>
+      <c r="O70">
+        <v>19.29962</v>
+      </c>
+      <c r="P70">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q70">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R70" t="s">
+        <v>48</v>
+      </c>
+      <c r="S70" t="s">
+        <v>49</v>
+      </c>
+      <c r="T70" t="s">
+        <v>50</v>
+      </c>
+      <c r="U70" t="s">
+        <v>51</v>
+      </c>
+      <c r="V70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>47.2085998951671</v>
+      </c>
+      <c r="H71">
+        <v>848</v>
+      </c>
+      <c r="I71">
+        <v>133.4</v>
+      </c>
+      <c r="L71">
+        <v>7.7</v>
+      </c>
+      <c r="M71">
+        <v>59.2</v>
+      </c>
+      <c r="N71">
+        <v>61.36</v>
+      </c>
+      <c r="O71">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="P71">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q71">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R71" t="s">
+        <v>48</v>
+      </c>
+      <c r="S71" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" t="s">
+        <v>50</v>
+      </c>
+      <c r="U71" t="s">
+        <v>51</v>
+      </c>
+      <c r="V71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72">
+        <v>16</v>
+      </c>
+      <c r="G72">
+        <v>47.2085998951671</v>
+      </c>
+      <c r="H72">
+        <v>848</v>
+      </c>
+      <c r="I72">
+        <v>133.4</v>
+      </c>
+      <c r="L72">
+        <v>7.7</v>
+      </c>
+      <c r="M72">
+        <v>59.2</v>
+      </c>
+      <c r="N72">
+        <v>61.36</v>
+      </c>
+      <c r="O72">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="P72">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q72">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R72" t="s">
+        <v>48</v>
+      </c>
+      <c r="S72" t="s">
+        <v>49</v>
+      </c>
+      <c r="T72" t="s">
+        <v>50</v>
+      </c>
+      <c r="U72" t="s">
+        <v>51</v>
+      </c>
+      <c r="V72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73">
+        <v>2.17082</v>
+      </c>
+      <c r="G73">
+        <v>36.48943426196</v>
+      </c>
+      <c r="H73">
+        <v>860</v>
+      </c>
+      <c r="I73">
+        <v>164</v>
+      </c>
+      <c r="J73">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="K73">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="L73">
+        <v>1.78021</v>
+      </c>
+      <c r="M73">
+        <v>25.02</v>
+      </c>
+      <c r="N73">
+        <v>26.64</v>
+      </c>
+      <c r="O73">
+        <v>79.01600000000001</v>
+      </c>
+      <c r="P73">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q73">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R73" t="s">
+        <v>48</v>
+      </c>
+      <c r="S73" t="s">
+        <v>49</v>
+      </c>
+      <c r="T73" t="s">
+        <v>50</v>
+      </c>
+      <c r="U73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74">
+        <v>2.17082</v>
+      </c>
+      <c r="G74">
+        <v>36.48943426196</v>
+      </c>
+      <c r="H74">
+        <v>860</v>
+      </c>
+      <c r="I74">
+        <v>164</v>
+      </c>
+      <c r="J74">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="K74">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="L74">
+        <v>1.78021</v>
+      </c>
+      <c r="M74">
+        <v>25.02</v>
+      </c>
+      <c r="N74">
+        <v>26.64</v>
+      </c>
+      <c r="O74">
+        <v>79.01600000000001</v>
+      </c>
+      <c r="P74">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q74">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R74" t="s">
+        <v>48</v>
+      </c>
+      <c r="S74" t="s">
+        <v>49</v>
+      </c>
+      <c r="T74" t="s">
+        <v>50</v>
+      </c>
+      <c r="U74" t="s">
+        <v>51</v>
+      </c>
+      <c r="V74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75">
+        <v>2.17082</v>
+      </c>
+      <c r="G75">
+        <v>36.48943426196</v>
+      </c>
+      <c r="H75">
+        <v>860</v>
+      </c>
+      <c r="I75">
+        <v>164</v>
+      </c>
+      <c r="J75">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="K75">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="L75">
+        <v>1.78021</v>
+      </c>
+      <c r="M75">
+        <v>25.02</v>
+      </c>
+      <c r="N75">
+        <v>26.64</v>
+      </c>
+      <c r="O75">
+        <v>79.01600000000001</v>
+      </c>
+      <c r="P75">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q75">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R75" t="s">
+        <v>48</v>
+      </c>
+      <c r="S75" t="s">
+        <v>49</v>
+      </c>
+      <c r="T75" t="s">
+        <v>50</v>
+      </c>
+      <c r="U75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76">
+        <v>2.17082</v>
+      </c>
+      <c r="G76">
+        <v>36.48943426196</v>
+      </c>
+      <c r="H76">
+        <v>860</v>
+      </c>
+      <c r="I76">
+        <v>164</v>
+      </c>
+      <c r="J76">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="K76">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="L76">
+        <v>1.78021</v>
+      </c>
+      <c r="M76">
+        <v>25.02</v>
+      </c>
+      <c r="N76">
+        <v>26.64</v>
+      </c>
+      <c r="O76">
+        <v>79.01600000000001</v>
+      </c>
+      <c r="P76">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q76">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R76" t="s">
+        <v>48</v>
+      </c>
+      <c r="S76" t="s">
+        <v>49</v>
+      </c>
+      <c r="T76" t="s">
+        <v>50</v>
+      </c>
+      <c r="U76" t="s">
+        <v>51</v>
+      </c>
+      <c r="V76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77">
+        <v>0.045</v>
+      </c>
+      <c r="G77">
+        <v>0.08958760034278999</v>
+      </c>
+      <c r="H77">
+        <v>0.487638444959395</v>
+      </c>
+      <c r="I77">
+        <v>0.32</v>
+      </c>
+      <c r="L77">
+        <v>0.075</v>
+      </c>
+      <c r="M77">
+        <v>0.12402</v>
+      </c>
+      <c r="N77">
+        <v>0.15247</v>
+      </c>
+      <c r="O77">
+        <v>0.2771</v>
+      </c>
+      <c r="P77">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q77">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R77" t="s">
+        <v>48</v>
+      </c>
+      <c r="S77" t="s">
+        <v>49</v>
+      </c>
+      <c r="T77" t="s">
+        <v>50</v>
+      </c>
+      <c r="U77" t="s">
+        <v>51</v>
+      </c>
+      <c r="V77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78">
+        <v>0.045</v>
+      </c>
+      <c r="G78">
+        <v>0.08958760034278999</v>
+      </c>
+      <c r="H78">
+        <v>0.487638444959395</v>
+      </c>
+      <c r="I78">
+        <v>0.32</v>
+      </c>
+      <c r="L78">
+        <v>0.075</v>
+      </c>
+      <c r="M78">
+        <v>0.12402</v>
+      </c>
+      <c r="N78">
+        <v>0.15247</v>
+      </c>
+      <c r="O78">
+        <v>0.2771</v>
+      </c>
+      <c r="P78">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q78">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R78" t="s">
+        <v>48</v>
+      </c>
+      <c r="S78" t="s">
+        <v>49</v>
+      </c>
+      <c r="T78" t="s">
+        <v>50</v>
+      </c>
+      <c r="U78" t="s">
+        <v>51</v>
+      </c>
+      <c r="V78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79">
+        <v>0.3625</v>
+      </c>
+      <c r="G79">
+        <v>0.703983298938184</v>
+      </c>
+      <c r="H79">
+        <v>2.64</v>
+      </c>
+      <c r="I79">
+        <v>2.37</v>
+      </c>
+      <c r="L79">
+        <v>0.06852</v>
+      </c>
+      <c r="M79">
+        <v>1.436</v>
+      </c>
+      <c r="N79">
+        <v>1.6376</v>
+      </c>
+      <c r="O79">
+        <v>2.081</v>
+      </c>
+      <c r="P79">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q79">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R79" t="s">
+        <v>48</v>
+      </c>
+      <c r="S79" t="s">
+        <v>49</v>
+      </c>
+      <c r="T79" t="s">
+        <v>50</v>
+      </c>
+      <c r="U79" t="s">
+        <v>51</v>
+      </c>
+      <c r="V79" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80">
+        <v>8.865</v>
+      </c>
+      <c r="G80">
+        <v>8.637142857142861</v>
+      </c>
+      <c r="H80">
+        <v>10.38</v>
+      </c>
+      <c r="I80">
+        <v>9.94</v>
+      </c>
+      <c r="L80">
+        <v>9.08</v>
+      </c>
+      <c r="M80">
+        <v>9.313000000000001</v>
+      </c>
+      <c r="N80">
+        <v>9.375999999999999</v>
+      </c>
+      <c r="O80">
+        <v>9.750999999999999</v>
+      </c>
+      <c r="P80">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q80">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R80" t="s">
+        <v>48</v>
+      </c>
+      <c r="S80" t="s">
+        <v>49</v>
+      </c>
+      <c r="T80" t="s">
+        <v>50</v>
+      </c>
+      <c r="U80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81">
+        <v>1.725</v>
+      </c>
+      <c r="G81">
+        <v>2.16952380952381</v>
+      </c>
+      <c r="H81">
+        <v>17.7</v>
+      </c>
+      <c r="I81">
+        <v>3.714</v>
+      </c>
+      <c r="L81">
+        <v>1.31</v>
+      </c>
+      <c r="M81">
+        <v>2.838</v>
+      </c>
+      <c r="N81">
+        <v>2.9496</v>
+      </c>
+      <c r="O81">
+        <v>3.298</v>
+      </c>
+      <c r="P81">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q81">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R81" t="s">
+        <v>48</v>
+      </c>
+      <c r="S81" t="s">
+        <v>49</v>
+      </c>
+      <c r="T81" t="s">
+        <v>50</v>
+      </c>
+      <c r="U81" t="s">
+        <v>51</v>
+      </c>
+      <c r="V81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82">
+        <v>1.725</v>
+      </c>
+      <c r="G82">
+        <v>2.16952380952381</v>
+      </c>
+      <c r="H82">
+        <v>17.7</v>
+      </c>
+      <c r="I82">
+        <v>3.714</v>
+      </c>
+      <c r="L82">
+        <v>1.31</v>
+      </c>
+      <c r="M82">
+        <v>2.838</v>
+      </c>
+      <c r="N82">
+        <v>2.9496</v>
+      </c>
+      <c r="O82">
+        <v>3.298</v>
+      </c>
+      <c r="P82">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q82">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R82" t="s">
+        <v>48</v>
+      </c>
+      <c r="S82" t="s">
+        <v>49</v>
+      </c>
+      <c r="T82" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" t="s">
+        <v>51</v>
+      </c>
+      <c r="V82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83">
+        <v>0.1135</v>
+      </c>
+      <c r="G83">
+        <v>0.245285714285714</v>
+      </c>
+      <c r="H83">
+        <v>2.95</v>
+      </c>
+      <c r="I83">
+        <v>0.784</v>
+      </c>
+      <c r="L83">
+        <v>0.149</v>
+      </c>
+      <c r="M83">
+        <v>0.2637</v>
+      </c>
+      <c r="N83">
+        <v>0.30096</v>
+      </c>
+      <c r="O83">
+        <v>0.47358</v>
+      </c>
+      <c r="P83">
+        <v>1790680.36207</v>
+      </c>
+      <c r="Q83">
+        <v>5502170.80623</v>
+      </c>
+      <c r="R83" t="s">
+        <v>48</v>
+      </c>
+      <c r="S83" t="s">
+        <v>49</v>
+      </c>
+      <c r="T83" t="s">
+        <v>50</v>
+      </c>
+      <c r="U83" t="s">
+        <v>51</v>
+      </c>
+      <c r="V83" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
